--- a/src/sample/pr_w_d.xlsx
+++ b/src/sample/pr_w_d.xlsx
@@ -555,40 +555,56 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -604,22 +620,6 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Вывод" xfId="2" builtinId="21"/>
@@ -1000,8 +1000,8 @@
   </sheetPr>
   <dimension ref="A1:Y114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="36" zoomScaleNormal="40" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="36" zoomScaleNormal="40" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1015,7 +1015,7 @@
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
     <col min="10" max="10" width="29.109375" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" customWidth="1"/>
     <col min="12" max="14" width="14.6640625" customWidth="1"/>
     <col min="15" max="16" width="21.5546875" customWidth="1"/>
     <col min="17" max="17" width="29.109375" customWidth="1"/>
@@ -1026,139 +1026,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
     </row>
     <row r="2" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
     </row>
     <row r="3" spans="1:25" ht="56.25" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
     </row>
     <row r="4" spans="1:25" ht="42.75" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
     </row>
     <row r="5" spans="1:25" ht="47.25" customHeight="1">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="29">
         <v>2022</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="43" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1">
       <c r="B7" s="20"/>
@@ -1180,53 +1180,53 @@
       <c r="R7" s="18"/>
     </row>
     <row r="8" spans="1:25" ht="45" customHeight="1">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
     </row>
     <row r="9" spans="1:25" ht="50.25" customHeight="1">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
     </row>
     <row r="10" spans="1:25" ht="47.25" customHeight="1">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -1243,12 +1243,12 @@
       <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:25" ht="39" customHeight="1">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
@@ -1323,70 +1323,70 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:25" ht="88.5" customHeight="1">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="35" t="s">
+      <c r="I15" s="35"/>
+      <c r="J15" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="39" t="s">
+      <c r="K15" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41" t="s">
+      <c r="L15" s="35"/>
+      <c r="M15" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="35" t="s">
+      <c r="N15" s="45"/>
+      <c r="O15" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="P15" s="33" t="s">
+      <c r="P15" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="33" t="s">
+      <c r="Q15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="R15" s="35" t="s">
+      <c r="R15" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="28.5" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="34"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="36"/>
+      <c r="J16" s="41"/>
       <c r="K16" s="19" t="s">
         <v>4</v>
       </c>
@@ -1399,10 +1399,10 @@
       <c r="N16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="36"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="36"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="41"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
@@ -2241,26 +2241,26 @@
       <c r="S53" s="5"/>
     </row>
     <row r="54" spans="1:19" ht="48" customHeight="1">
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="38" t="s">
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="38"/>
+      <c r="G54" s="36"/>
       <c r="S54" s="5"/>
     </row>
     <row r="55" spans="1:19" ht="48" customHeight="1">
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-      <c r="F55" s="32" t="s">
+      <c r="F55" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G55" s="32"/>
+      <c r="G55" s="37"/>
       <c r="S55" s="5"/>
     </row>
     <row r="56" spans="1:19" ht="48" customHeight="1">
@@ -2269,20 +2269,20 @@
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
-      <c r="F56" s="38" t="s">
+      <c r="F56" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G56" s="38"/>
+      <c r="G56" s="36"/>
       <c r="S56" s="5"/>
     </row>
     <row r="57" spans="1:19" ht="48" customHeight="1">
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
-      <c r="F57" s="32" t="s">
+      <c r="F57" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="32"/>
+      <c r="G57" s="37"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" ht="48" customHeight="1">
@@ -2371,36 +2371,36 @@
       <c r="S86" s="5"/>
     </row>
     <row r="87" spans="2:19" ht="28.2">
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="54"/>
-      <c r="G87" s="54"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
       <c r="S87" s="5"/>
     </row>
     <row r="88" spans="2:19" ht="28.2">
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
-      <c r="F88" s="54"/>
-      <c r="G88" s="54"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
       <c r="S88" s="5"/>
     </row>
     <row r="89" spans="2:19" ht="28.2">
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="54"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
       <c r="S89" s="5"/>
     </row>
     <row r="90" spans="2:19" ht="28.2">
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="54"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
       <c r="S90" s="5"/>
     </row>
     <row r="91" spans="2:19">
@@ -2480,8 +2480,14 @@
     </sortState>
   </autoFilter>
   <mergeCells count="35">
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="B8:R8"/>
     <mergeCell ref="A1:R3"/>
     <mergeCell ref="A4:R4"/>
@@ -2489,32 +2495,26 @@
     <mergeCell ref="E6:L6"/>
     <mergeCell ref="M6:R6"/>
     <mergeCell ref="A5:S5"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
     <mergeCell ref="F90:G90"/>
     <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
     <mergeCell ref="R15:R16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
     <mergeCell ref="B87:E87"/>
     <mergeCell ref="F87:G87"/>
     <mergeCell ref="F88:G88"/>
     <mergeCell ref="F89:G89"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
     <mergeCell ref="B54:E54"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="F55:G55"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="24" fitToHeight="2" orientation="portrait" r:id="rId1"/>

--- a/src/sample/pr_w_d.xlsx
+++ b/src/sample/pr_w_d.xlsx
@@ -136,7 +136,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm:ss.0;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,11 +315,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color rgb="FFC00000"/>
-      <name val="Reforma Grotesk Demi"/>
     </font>
   </fonts>
   <fills count="6">
@@ -466,7 +461,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,59 +547,7 @@
     <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -614,10 +557,59 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,7 +662,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0546169-7A6A-4441-A8F6-259AF0A4CD9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0546169-7A6A-4441-A8F6-259AF0A4CD9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1000,8 +992,8 @@
   </sheetPr>
   <dimension ref="A1:Y114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="36" zoomScaleNormal="40" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="36" zoomScaleNormal="40" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1026,139 +1018,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
     </row>
     <row r="2" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
     </row>
     <row r="3" spans="1:25" ht="56.25" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
     </row>
     <row r="4" spans="1:25" ht="42.75" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
     </row>
     <row r="5" spans="1:25" ht="47.25" customHeight="1">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="29">
         <v>2022</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="48" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1">
       <c r="B7" s="20"/>
@@ -1180,53 +1172,53 @@
       <c r="R7" s="18"/>
     </row>
     <row r="8" spans="1:25" ht="45" customHeight="1">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
     </row>
     <row r="9" spans="1:25" ht="50.25" customHeight="1">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
     </row>
     <row r="10" spans="1:25" ht="47.25" customHeight="1">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -1243,12 +1235,12 @@
       <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:25" ht="39" customHeight="1">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
@@ -1323,70 +1315,70 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:25" ht="88.5" customHeight="1">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="34" t="s">
+      <c r="H15" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="40" t="s">
+      <c r="I15" s="48"/>
+      <c r="J15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="35"/>
-      <c r="M15" s="44" t="s">
+      <c r="L15" s="48"/>
+      <c r="M15" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="45"/>
-      <c r="O15" s="40" t="s">
+      <c r="N15" s="50"/>
+      <c r="O15" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="P15" s="42" t="s">
+      <c r="P15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="42" t="s">
+      <c r="Q15" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="R15" s="40" t="s">
+      <c r="R15" s="45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="28.5" customHeight="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="43"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="41"/>
+      <c r="J16" s="46"/>
       <c r="K16" s="19" t="s">
         <v>4</v>
       </c>
@@ -1399,10 +1391,10 @@
       <c r="N16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="41"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="41"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="46"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
@@ -1415,7 +1407,7 @@
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="31"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="21"/>
       <c r="F17" s="23"/>
       <c r="G17" s="13"/>
@@ -1530,7 +1522,7 @@
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="31"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="21"/>
       <c r="F22" s="23"/>
       <c r="G22" s="13"/>
@@ -2241,26 +2233,26 @@
       <c r="S53" s="5"/>
     </row>
     <row r="54" spans="1:19" ht="48" customHeight="1">
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="36" t="s">
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="36"/>
+      <c r="G54" s="43"/>
       <c r="S54" s="5"/>
     </row>
     <row r="55" spans="1:19" ht="48" customHeight="1">
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-      <c r="F55" s="37" t="s">
+      <c r="F55" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G55" s="37"/>
+      <c r="G55" s="44"/>
       <c r="S55" s="5"/>
     </row>
     <row r="56" spans="1:19" ht="48" customHeight="1">
@@ -2269,20 +2261,20 @@
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
-      <c r="F56" s="36" t="s">
+      <c r="F56" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G56" s="36"/>
+      <c r="G56" s="43"/>
       <c r="S56" s="5"/>
     </row>
     <row r="57" spans="1:19" ht="48" customHeight="1">
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
-      <c r="F57" s="37" t="s">
+      <c r="F57" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="37"/>
+      <c r="G57" s="44"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" ht="48" customHeight="1">
@@ -2371,36 +2363,36 @@
       <c r="S86" s="5"/>
     </row>
     <row r="87" spans="2:19" ht="28.2">
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
       <c r="S87" s="5"/>
     </row>
     <row r="88" spans="2:19" ht="28.2">
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
       <c r="S88" s="5"/>
     </row>
     <row r="89" spans="2:19" ht="28.2">
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
       <c r="S89" s="5"/>
     </row>
     <row r="90" spans="2:19" ht="28.2">
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
       <c r="S90" s="5"/>
     </row>
     <row r="91" spans="2:19">
@@ -2480,21 +2472,16 @@
     </sortState>
   </autoFilter>
   <mergeCells count="35">
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="A1:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="F90:G90"/>
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="F56:G56"/>
@@ -2505,16 +2492,21 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="O15:O16"/>
     <mergeCell ref="P15:P16"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="A1:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="24" fitToHeight="2" orientation="portrait" r:id="rId1"/>

--- a/src/sample/pr_w_d.xlsx
+++ b/src/sample/pr_w_d.xlsx
@@ -541,13 +541,59 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -557,60 +603,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -662,7 +662,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D0546169-7A6A-4441-A8F6-259AF0A4CD9F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0546169-7A6A-4441-A8F6-259AF0A4CD9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -992,8 +992,8 @@
   </sheetPr>
   <dimension ref="A1:Y114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="36" zoomScaleNormal="40" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="36" zoomScaleNormal="40" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1018,139 +1018,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
     </row>
     <row r="2" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
     </row>
     <row r="3" spans="1:25" ht="56.25" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
     </row>
     <row r="4" spans="1:25" ht="42.75" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
     </row>
     <row r="5" spans="1:25" ht="47.25" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="29">
-        <v>2022</v>
-      </c>
-      <c r="E6" s="41" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="31" t="s">
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1">
       <c r="B7" s="20"/>
@@ -1172,53 +1170,53 @@
       <c r="R7" s="18"/>
     </row>
     <row r="8" spans="1:25" ht="45" customHeight="1">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
     </row>
     <row r="9" spans="1:25" ht="50.25" customHeight="1">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
     </row>
     <row r="10" spans="1:25" ht="47.25" customHeight="1">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -1235,12 +1233,12 @@
       <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:25" ht="39" customHeight="1">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
@@ -1315,70 +1313,70 @@
       <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:25" ht="88.5" customHeight="1">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="45" t="s">
+      <c r="I15" s="33"/>
+      <c r="J15" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K15" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49" t="s">
+      <c r="L15" s="33"/>
+      <c r="M15" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="50"/>
-      <c r="O15" s="45" t="s">
+      <c r="N15" s="43"/>
+      <c r="O15" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="P15" s="35" t="s">
+      <c r="P15" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="35" t="s">
+      <c r="Q15" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="R15" s="38" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="28.5" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="36"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="46"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="19" t="s">
         <v>4</v>
       </c>
@@ -1391,10 +1389,10 @@
       <c r="N16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="46"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="39"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
@@ -1413,7 +1411,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="9"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="30"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="9"/>
       <c r="L17" s="7"/>
       <c r="M17" s="26"/>
@@ -1436,7 +1434,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="9"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="30"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="9"/>
       <c r="L18" s="7"/>
       <c r="M18" s="26"/>
@@ -1459,7 +1457,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="9"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="30"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="9"/>
       <c r="L19" s="7"/>
       <c r="M19" s="27"/>
@@ -1482,7 +1480,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="30"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="9"/>
       <c r="L20" s="7"/>
       <c r="M20" s="27"/>
@@ -1505,7 +1503,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="30"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="9"/>
       <c r="L21" s="7"/>
       <c r="M21" s="27"/>
@@ -1528,7 +1526,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="9"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="30"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="9"/>
       <c r="L22" s="7"/>
       <c r="M22" s="27"/>
@@ -1551,7 +1549,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="30"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="9"/>
       <c r="L23" s="7"/>
       <c r="M23" s="26"/>
@@ -1574,7 +1572,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="9"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="30"/>
+      <c r="J24" s="29"/>
       <c r="K24" s="9"/>
       <c r="L24" s="7"/>
       <c r="M24" s="27"/>
@@ -1597,7 +1595,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="9"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="30"/>
+      <c r="J25" s="29"/>
       <c r="K25" s="9"/>
       <c r="L25" s="7"/>
       <c r="M25" s="27"/>
@@ -1620,7 +1618,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="9"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="30"/>
+      <c r="J26" s="29"/>
       <c r="K26" s="9"/>
       <c r="L26" s="7"/>
       <c r="M26" s="26"/>
@@ -1643,7 +1641,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="9"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="30"/>
+      <c r="J27" s="29"/>
       <c r="K27" s="9"/>
       <c r="L27" s="7"/>
       <c r="M27" s="26"/>
@@ -1666,7 +1664,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="30"/>
+      <c r="J28" s="29"/>
       <c r="K28" s="9"/>
       <c r="L28" s="7"/>
       <c r="M28" s="26"/>
@@ -1689,7 +1687,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="9"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="30"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="9"/>
       <c r="L29" s="7"/>
       <c r="M29" s="26"/>
@@ -1712,7 +1710,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="9"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="30"/>
+      <c r="J30" s="29"/>
       <c r="K30" s="9"/>
       <c r="L30" s="7"/>
       <c r="M30" s="27"/>
@@ -1735,7 +1733,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="9"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="30"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="9"/>
       <c r="L31" s="7"/>
       <c r="M31" s="26"/>
@@ -1758,7 +1756,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="9"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="30"/>
+      <c r="J32" s="29"/>
       <c r="K32" s="9"/>
       <c r="L32" s="7"/>
       <c r="M32" s="27"/>
@@ -1781,7 +1779,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="9"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="30"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="9"/>
       <c r="L33" s="7"/>
       <c r="M33" s="26"/>
@@ -1804,7 +1802,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="9"/>
       <c r="I34" s="7"/>
-      <c r="J34" s="30"/>
+      <c r="J34" s="29"/>
       <c r="K34" s="9"/>
       <c r="L34" s="7"/>
       <c r="M34" s="26"/>
@@ -1827,7 +1825,7 @@
       <c r="G35" s="13"/>
       <c r="H35" s="9"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="30"/>
+      <c r="J35" s="29"/>
       <c r="K35" s="9"/>
       <c r="L35" s="7"/>
       <c r="M35" s="26"/>
@@ -1850,7 +1848,7 @@
       <c r="G36" s="13"/>
       <c r="H36" s="9"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="30"/>
+      <c r="J36" s="29"/>
       <c r="K36" s="9"/>
       <c r="L36" s="7"/>
       <c r="M36" s="27"/>
@@ -1873,7 +1871,7 @@
       <c r="G37" s="13"/>
       <c r="H37" s="9"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="30"/>
+      <c r="J37" s="29"/>
       <c r="K37" s="9"/>
       <c r="L37" s="7"/>
       <c r="M37" s="26"/>
@@ -1896,7 +1894,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="9"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="30"/>
+      <c r="J38" s="29"/>
       <c r="K38" s="9"/>
       <c r="L38" s="7"/>
       <c r="M38" s="27"/>
@@ -1919,7 +1917,7 @@
       <c r="G39" s="13"/>
       <c r="H39" s="9"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="30"/>
+      <c r="J39" s="29"/>
       <c r="K39" s="9"/>
       <c r="L39" s="7"/>
       <c r="M39" s="26"/>
@@ -1942,7 +1940,7 @@
       <c r="G40" s="13"/>
       <c r="H40" s="9"/>
       <c r="I40" s="7"/>
-      <c r="J40" s="30"/>
+      <c r="J40" s="29"/>
       <c r="K40" s="9"/>
       <c r="L40" s="7"/>
       <c r="M40" s="26"/>
@@ -1965,7 +1963,7 @@
       <c r="G41" s="13"/>
       <c r="H41" s="9"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="30"/>
+      <c r="J41" s="29"/>
       <c r="K41" s="9"/>
       <c r="L41" s="7"/>
       <c r="M41" s="26"/>
@@ -1988,7 +1986,7 @@
       <c r="G42" s="13"/>
       <c r="H42" s="9"/>
       <c r="I42" s="7"/>
-      <c r="J42" s="30"/>
+      <c r="J42" s="29"/>
       <c r="K42" s="9"/>
       <c r="L42" s="7"/>
       <c r="M42" s="27"/>
@@ -2011,7 +2009,7 @@
       <c r="G43" s="13"/>
       <c r="H43" s="9"/>
       <c r="I43" s="7"/>
-      <c r="J43" s="30"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="9"/>
       <c r="L43" s="7"/>
       <c r="M43" s="26"/>
@@ -2034,7 +2032,7 @@
       <c r="G44" s="13"/>
       <c r="H44" s="9"/>
       <c r="I44" s="7"/>
-      <c r="J44" s="30"/>
+      <c r="J44" s="29"/>
       <c r="K44" s="9"/>
       <c r="L44" s="7"/>
       <c r="M44" s="26"/>
@@ -2057,7 +2055,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="9"/>
       <c r="I45" s="7"/>
-      <c r="J45" s="30"/>
+      <c r="J45" s="29"/>
       <c r="K45" s="9"/>
       <c r="L45" s="7"/>
       <c r="M45" s="26"/>
@@ -2080,7 +2078,7 @@
       <c r="G46" s="13"/>
       <c r="H46" s="9"/>
       <c r="I46" s="7"/>
-      <c r="J46" s="30"/>
+      <c r="J46" s="29"/>
       <c r="K46" s="9"/>
       <c r="L46" s="7"/>
       <c r="M46" s="27"/>
@@ -2103,7 +2101,7 @@
       <c r="G47" s="13"/>
       <c r="H47" s="9"/>
       <c r="I47" s="7"/>
-      <c r="J47" s="30"/>
+      <c r="J47" s="29"/>
       <c r="K47" s="9"/>
       <c r="L47" s="7"/>
       <c r="M47" s="27"/>
@@ -2126,7 +2124,7 @@
       <c r="G48" s="13"/>
       <c r="H48" s="9"/>
       <c r="I48" s="7"/>
-      <c r="J48" s="30"/>
+      <c r="J48" s="29"/>
       <c r="K48" s="9"/>
       <c r="L48" s="7"/>
       <c r="M48" s="27"/>
@@ -2149,7 +2147,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="9"/>
       <c r="I49" s="7"/>
-      <c r="J49" s="30"/>
+      <c r="J49" s="29"/>
       <c r="K49" s="9"/>
       <c r="L49" s="7"/>
       <c r="M49" s="27"/>
@@ -2172,7 +2170,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="9"/>
       <c r="I50" s="7"/>
-      <c r="J50" s="30"/>
+      <c r="J50" s="29"/>
       <c r="K50" s="9"/>
       <c r="L50" s="7"/>
       <c r="M50" s="27"/>
@@ -2195,7 +2193,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="9"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="30"/>
+      <c r="J51" s="29"/>
       <c r="K51" s="9"/>
       <c r="L51" s="7"/>
       <c r="M51" s="27"/>
@@ -2218,7 +2216,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="9"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="30"/>
+      <c r="J52" s="29"/>
       <c r="K52" s="9"/>
       <c r="L52" s="7"/>
       <c r="M52" s="27"/>
@@ -2233,26 +2231,26 @@
       <c r="S53" s="5"/>
     </row>
     <row r="54" spans="1:19" ht="48" customHeight="1">
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="43" t="s">
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="43"/>
+      <c r="G54" s="34"/>
       <c r="S54" s="5"/>
     </row>
     <row r="55" spans="1:19" ht="48" customHeight="1">
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-      <c r="F55" s="44" t="s">
+      <c r="F55" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G55" s="44"/>
+      <c r="G55" s="35"/>
       <c r="S55" s="5"/>
     </row>
     <row r="56" spans="1:19" ht="48" customHeight="1">
@@ -2261,20 +2259,20 @@
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
-      <c r="F56" s="43" t="s">
+      <c r="F56" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G56" s="43"/>
+      <c r="G56" s="34"/>
       <c r="S56" s="5"/>
     </row>
     <row r="57" spans="1:19" ht="48" customHeight="1">
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
-      <c r="F57" s="44" t="s">
+      <c r="F57" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="44"/>
+      <c r="G57" s="35"/>
       <c r="S57" s="5"/>
     </row>
     <row r="58" spans="1:19" ht="48" customHeight="1">
@@ -2363,36 +2361,36 @@
       <c r="S86" s="5"/>
     </row>
     <row r="87" spans="2:19" ht="28.2">
-      <c r="B87" s="51"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="42"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
       <c r="S87" s="5"/>
     </row>
     <row r="88" spans="2:19" ht="28.2">
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
       <c r="S88" s="5"/>
     </row>
     <row r="89" spans="2:19" ht="28.2">
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="42"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
       <c r="S89" s="5"/>
     </row>
     <row r="90" spans="2:19" ht="28.2">
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="42"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
       <c r="S90" s="5"/>
     </row>
     <row r="91" spans="2:19">
@@ -2472,6 +2470,31 @@
     </sortState>
   </autoFilter>
   <mergeCells count="35">
+    <mergeCell ref="B9:R9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="A1:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
     <mergeCell ref="B87:E87"/>
     <mergeCell ref="F87:G87"/>
     <mergeCell ref="F88:G88"/>
@@ -2482,31 +2505,6 @@
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="A1:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="B9:R9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G15:G16"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="24" fitToHeight="2" orientation="portrait" r:id="rId1"/>
